--- a/Kuzbass_Project/bin/Debug/Шаблоны/ШаблонАкт.xlsx
+++ b/Kuzbass_Project/bin/Debug/Шаблоны/ШаблонАкт.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>№ заказа</t>
   </si>
@@ -37,6 +37,9 @@
   </si>
   <si>
     <t>Акт</t>
+  </si>
+  <si>
+    <t>Дата</t>
   </si>
 </sst>
 </file>
@@ -79,7 +82,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -102,15 +105,29 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -406,10 +423,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -420,20 +437,21 @@
     <col min="4" max="4" width="28.42578125" customWidth="1"/>
     <col min="5" max="5" width="14.5703125" customWidth="1"/>
     <col min="6" max="6" width="19.140625" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" customWidth="1"/>
+    <col min="7" max="7" width="31.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="36">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:7" ht="36">
+      <c r="A1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -451,11 +469,14 @@
       </c>
       <c r="F2" s="1" t="s">
         <v>5</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A1:G1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>

--- a/Kuzbass_Project/bin/Debug/Шаблоны/ШаблонАкт.xlsx
+++ b/Kuzbass_Project/bin/Debug/Шаблоны/ШаблонАкт.xlsx
@@ -74,12 +74,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -118,15 +124,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -426,7 +429,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -441,33 +444,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="36">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G2" s="2" t="s">
